--- a/data/interfaces.xlsx
+++ b/data/interfaces.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12020"/>
+    <workbookView windowWidth="27180" windowHeight="12000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bi" sheetId="1" r:id="rId1"/>
+    <sheet name="值班车" sheetId="2" r:id="rId2"/>
+    <sheet name="产量波动分析" sheetId="3" r:id="rId3"/>
+    <sheet name="故障" sheetId="4" r:id="rId4"/>
+    <sheet name="应急抢修" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>name</t>
   </si>
@@ -186,18 +190,613 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>创建并提交审核百口泉值班车管理长途</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/submit</t>
+  </si>
+  <si>
+    <t>{"dispatchId":None,"title":"长途接口4","useTime":"2021-11-25","leader":"11806","longDistance":"1","cars":[{"carName":"新JQ9162蓝 田广林 13519906213","carId":"243380571031277568","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":None}]}</t>
+  </si>
+  <si>
+    <t>创建百口泉值班车管理短途</t>
+  </si>
+  <si>
+    <t>{"dispatchId":None,"title":"短途接口01","useTime":"2021-11-04","leader":"11806","longDistance":"0","cars":[{"carName":"新JQ9162蓝 田广林 13519906213","carId":"243380571031277568","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":None}]}</t>
+  </si>
+  <si>
+    <t>创建产量波动分析工单</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-fluctuation.cddev.cddpi.com/v1/fluctuationDispatch/submit</t>
+  </si>
+  <si>
+    <t>{"title":"波动分析01","type":"","baseState":"2","fluctuationType":"well","reason":"3","conclusion":"3","plan":"","report":1,"assayer":"11806","engineer":"","notifyParty":"","unit":[{"unitId":"1"},{"unitId":"2"},{"unitId":"3"}]}</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>statusName</t>
+  </si>
+  <si>
+    <t>processDefinitionId</t>
+  </si>
+  <si>
+    <t>taskNumber</t>
+  </si>
+  <si>
+    <t>assertinterface</t>
+  </si>
+  <si>
+    <t>长途</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Content-Type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"application/json;charset=UTF-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  "dispatchId": None,
+  "title": "",
+  "useTime": "2021-11-25",
+  "leader": "11806",
+  "longDistance": "1",
+  "cars": [
+    {
+      "carName": "新BQ3002蓝 null null",
+      "carId": "243380584620822528",
+      "orgId": "243380560411299841",
+      "orgName": "准东兴业车组-石西监控",
+      "work": None
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>处理中</t>
+  </si>
+  <si>
+    <t>7e50a27a-4dd1-11ec-93d3-8e238048f849</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>待办工单列表</t>
+  </si>
+  <si>
+    <t>申请领导审批通过</t>
+  </si>
+  <si>
+    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle</t>
+  </si>
+  <si>
+    <t>{"param":{"examine":1,"comment":"","previousStepUsers":"11806","longDistance":"1"},"preTask":"审核值班车申请","comment":"","orderType":"Duty_Bkq_Dispatch","optionUser":"11806","optionHandle":"同意"}</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>申请领导审批驳回</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "examine": 0,
+    "comment": "驳回意见",
+    "previousStepUsers": None,
+    "longDistance": "0"
+  },
+  "preTask": "审核值班车申请",
+  "comment": "驳回意见",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Duty_Bkq_Dispatch",
+  "optionUser": None,
+  "optionHandle": "驳回"
+}</t>
+  </si>
+  <si>
+    <t>refuse</t>
+  </si>
+  <si>
+    <t>已驳回</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>长途生产运行科通过</t>
+  </si>
+  <si>
+    <t>{"param":{"examine":1,"comment":"生产运行科领导同意","previousStepUsers":"11806","longDistance":"1"},"preTask":"生产运行科领导审核","comment":"生产运行科领导同意","orderType":"Duty_Bkq_Dispatch","optionUser":"11806","optionHandle":"同意"}</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>短途生产运行科通过</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "examine": 1,
+    "comment": "",
+    "previousStepUsers": "11806",
+    "longDistance": "0"
+  },
+  "preTask": "生产运行科领导审核",
+  "comment": "",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Duty_Bkq_Dispatch",
+  "optionUser": "11806",
+  "optionHandle": "同意"
+}</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>生产运行科驳回</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "examine": 0,
+    "comment": "生产运行科驳回",
+    "previousStepUsers": None,
+    "longDistance": "0"
+  },
+  "preTask": "生产运行科领导审核",
+  "comment": "生产运行科驳回",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Duty_Bkq_Dispatch",
+  "optionUser": None,
+  "optionHandle": "驳回"
+}</t>
+  </si>
+  <si>
+    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/todo-page?current=0&amp;size=10&amp;orderType=Duty_Bkq_Dispatch&amp;createTime=&amp;startTime=&amp;endTime=</t>
+  </si>
+  <si>
+    <t>值班厂领导审批通过</t>
+  </si>
+  <si>
+    <t>{"param":{"examine":1,"comment":"厂领导审批通过","previousStepUsers":"11806","longDistance":"1"},"preTask":"值班厂领导审核","comment":"厂领导审批通过","orderType":"Duty_Bkq_Dispatch","optionUser":"11806","optionHandle":"同意"}</t>
+  </si>
+  <si>
+    <t>值班厂领导审批驳回</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "examine": 0,
+    "comment": "厂领导驳回",
+    "previousStepUsers": None,
+    "longDistance": "1"
+  },
+  "preTask": "值班厂领导审核",
+  "comment": "厂领导驳回",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Duty_Bkq_Dispatch",
+  "optionUser": None,
+  "optionHandle": "驳回"
+}</t>
+  </si>
+  <si>
+    <t>厂调盖章</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "examine": 1,
+    "comment": "盖章确认",
+    "previousStepUsers": None,
+    "longDistance": "0"
+  },
+  "preTask": "盖章确认",
+  "comment": "盖章确认",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Duty_Bkq_Dispatch",
+  "optionUser": None,
+  "optionHandle": "处理意见"
+}</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>百口泉工单查询</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/page?current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance=</t>
+  </si>
+  <si>
+    <t>编辑提交审核</t>
+  </si>
+  <si>
+    <t>{"dispatchId":"249569210247065600","code":"ZBC1637309936494","title":"草稿","source":"new_create","useTime":"2021-11-19","longDistance":"0","leader":"11806","alertType":None,"alertId":None,"status":"to_submit","isFile":"否","processDefinitionId":None,"processInstanceId":None,"tenantId":None,"createdBy":"0","creationDate":"2021-11-19 16:18:56","sourceName":None,"statusName":None,"cars":[{"detailId":"249569210301591552","dispatchId":"249569210247065600","carType":"zbc","carId":"243380571022888960","carName":"新JG9165蓝 冯军 13999508560","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":None,"tenantId":None}],"comment":[]}</t>
+  </si>
+  <si>
+    <t>短途</t>
+  </si>
+  <si>
+    <t>{"dispatchId":None,"title":"短途","useTime":"2021-11-12","leader":"11806","longDistance":"0","cars":[{"carName":"新JQ9162蓝 田广林 13519906213","carId":"243380571031277568","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":None}]}</t>
+  </si>
+  <si>
+    <t>百口泉值班车调度列表</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/page</t>
+  </si>
+  <si>
+    <t>current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance=</t>
+  </si>
+  <si>
+    <t>创建草稿</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs</t>
+  </si>
+  <si>
+    <t>{"dispatchId":None,"title":"草稿","useTime":"2021-11-17","leader":"11806","longDistance":"1","cars":[{"carName":"新JQ9162蓝 田广林 13519906213","carId":"243380571031277568","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":"工作安排1"},{"carName":"新JG9165蓝 冯军 13999508560","carId":"243380571022888960","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":"工作安排2"}]}</t>
+  </si>
+  <si>
+    <t>to_submit</t>
+  </si>
+  <si>
+    <t>待提交</t>
+  </si>
+  <si>
+    <t>获取工单详情</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>已关闭</t>
+  </si>
+  <si>
+    <t>保存草稿</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-fluctuation.cddev.cddpi.com/v1/fluctuationDispatch</t>
+  </si>
+  <si>
+    <t>{"title":"草稿","type":"","baseState":"2","fluctuationType":"well","reason":"3","conclusion":"为","plan":"饿","report":1,"assayer":"11806","engineer":"","notifyParty":"","unit":[{"unitId":"155"},{"unitId":"156"}]}</t>
+  </si>
+  <si>
+    <t>编辑提交</t>
+  </si>
+  <si>
+    <t>{"dispatchId":"249570264424255488","code":"CLBD1637310187829","title":"草稿","baseState":"2","fluctuationType":"well","reason":"3","conclusion":"为","plan":"饿","report":1,"assayer":"11806","engineer":None,"notifyParty":None,"source":"new_create","alertType":None,"alertId":None,"status":"to_submit","planStatus":None,"isFile":"否","processDefinitionId":None,"processInstanceId":None,"completeProgress":None,"tenantId":None,"createdBy":"0","creationDate":"2021-11-19 16:23:07","sourceName":None,"statusName":None,"planStatusName":None,"fluctuationTypeName":None,"unit":[{"unitId":"156"},{"unitId":"155"}],"comment":[],"id":"249570264424255488"}</t>
+  </si>
+  <si>
+    <t>创建提交领导审核</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/submit</t>
+  </si>
+  <si>
+    <t>{"title":"需领导审核","faultPosition":"的","faultTime":"2021-11-24 14:29:03","faultType":4,"description":"","factory":11806,"leaderApprove":1,"leader":11806,"alertId":"","alertType":""}</t>
+  </si>
+  <si>
+    <t>c2030ed9-37d3-11ec-8efc-aec2fc2fdb69</t>
+  </si>
+  <si>
+    <t>创建提交厂调审核</t>
+  </si>
+  <si>
+    <t>{
+  "title": "无需领导",
+  "faultPosition": "的",
+  "faultTime": "2021-11-26 11:15:47",
+  "faultType": 8,
+  "description": "",
+  "factory": "11806",
+  "leaderApprove": 0,
+  "leader": "",
+  "alertId": "",
+  "alertType": ""
+}</t>
+  </si>
+  <si>
+    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/todo-page?current=0&amp;size=10&amp;orderType=Fault_Dispatch&amp;createTime=&amp;startTime=&amp;endTime=</t>
+  </si>
+  <si>
+    <t>作业区值班领导同意</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": None,
+    "examine": 1,
+    "comment": "yijian",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "作业区值班领导审核",
+  "comment": "yijian",
+  "processInstanceId": "ec7ec6c1-4dc5-11ec-93d3-8e238048f849",
+  "taskId": "ecb28113-4dc5-11ec-93d3-8e238048f849",
+  "orderType": "Fault_Dispatch",
+  "optionUser": None,
+  "optionHandle": "同意"
+}</t>
+  </si>
+  <si>
+    <t>作业区值班领导驳回</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": None,
+    "examine": 0,
+    "comment": "作业区领导驳回",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "作业区值班领导审核",
+  "comment": "作业区领导驳回",
+  "processInstanceId": "2ef16cf3-4e65-11ec-804f-da81a7a907ff",
+  "taskId": "2f5d2735-4e65-11ec-804f-da81a7a907ff",
+  "orderType": "Fault_Dispatch",
+  "optionUser": None,
+  "optionHandle": "驳回"
+}</t>
+  </si>
+  <si>
+    <t>厂调审核需领导审核</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": "11806",
+    "examine": 1,
+    "comment": "处理方案",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "厂调审核",
+  "comment": "处理方案",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Fault_Dispatch",
+  "optionUser": "11806",
+  "optionHandle": "领导审核"
+}</t>
+  </si>
+  <si>
+    <t>厂调审核无需领导审核</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": None,
+    "examine": 0,
+    "comment": "厂调无需领导审核",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "厂调审核",
+  "comment": "厂调无需领导审核",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Fault_Dispatch",
+  "optionUser": None,
+  "optionHandle": "无需领导审核"
+}</t>
+  </si>
+  <si>
+    <t>故障工单查询</t>
+  </si>
+  <si>
+    <t>生产运行科同意且需领导</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": "11806",
+    "examine": 1,
+    "comment": "意见",
+    "leaderExamine": 1,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "生产运行科领导审核",
+  "comment": "意见",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Fault_Dispatch",
+  "optionUser": "11806",
+  "optionHandle": "同意"
+}</t>
+  </si>
+  <si>
+    <t>生产运行科同意无需领导</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": None,
+    "examine": 1,
+    "comment": "生产运行同意无需领导",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "生产运行科领导审核",
+  "comment": "生产运行同意无需领导",
+  "processInstanceId": "",
+  "taskId": "",
+  "orderType": "Fault_Dispatch",
+  "optionUser": None,
+  "optionHandle": "同意"
+}</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": None,
+    "examine": 0,
+    "comment": "生产运行科驳回",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "生产运行科领导审核",
+  "comment": "生产运行科驳回",
+  "processInstanceId": "59fa7758-4e66-11ec-804f-da81a7a907ff",
+  "taskId": "5ba42f05-4e66-11ec-804f-da81a7a907ff",
+  "orderType": "Fault_Dispatch",
+  "optionUser": None,
+  "optionHandle": "驳回"
+}</t>
+  </si>
+  <si>
+    <t>厂级领导发表意见</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": None,
+    "examine": 0,
+    "comment": "发表意见",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "厂级领导发表意见",
+  "comment": "发表意见",
+  "processInstanceId": "ec7ec6c1-4dc5-11ec-93d3-8e238048f849",
+  "taskId": "36b38ccd-4dc7-11ec-93d3-8e238048f849",
+  "orderType": "Fault_Dispatch",
+  "optionUser": None,
+  "optionHandle": "发表意见"
+}</t>
+  </si>
+  <si>
+    <t>录入处理意见</t>
+  </si>
+  <si>
+    <t>{
+  "param": {
+    "leader": None,
+    "examine": 0,
+    "comment": "录入处理意见",
+    "leaderExamine": 0,
+    "previousStepUsers": "11806"
+  },
+  "preTask": "录入处理结果",
+  "comment": "录入处理意见",
+  "processInstanceId": "ec7ec6c1-4dc5-11ec-93d3-8e238048f849",
+  "taskId": "76898f9c-4dc7-11ec-93d3-8e238048f849",
+  "orderType": "Fault_Dispatch",
+  "optionUser": None,
+  "optionHandle": "处理结果"
+}</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10</t>
+  </si>
+  <si>
+    <t>新建保存草稿</t>
+  </si>
+  <si>
+    <t>http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch</t>
+  </si>
+  <si>
+    <t>{
+  "title": "3",
+  "faultPosition": "3",
+  "faultTime": "2021-11-25 16:21:46",
+  "faultType": 3,
+  "description": "",
+  "factory": 11806,
+  "leaderApprove": 1,
+  "leader": 11806,
+  "alertId": "",
+  "alertType": ""
+}</t>
+  </si>
+  <si>
+    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Fault_Dispatch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,43 +805,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008080"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008080"/>
-      <name val="Menlo"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8.25"/>
-      <name val="Menlo"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -253,10 +842,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FFC80000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF881280"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,8 +976,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +999,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -301,59 +1031,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,12 +1045,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <name val="Menlo"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -390,13 +1080,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +1128,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,19 +1164,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +1200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,37 +1218,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,31 +1242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,32 +1281,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -637,17 +1301,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,7 +1331,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,153 +1370,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -835,19 +1585,61 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1169,38 +1961,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.9416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.9166666666667" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.8333333333333" style="2"/>
+    <col min="1" max="1" width="39.4416666666667" style="21" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="62.9166666666667" style="22" customWidth="1"/>
+    <col min="5" max="6" width="10.8333333333333" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1208,99 +2000,1582 @@
       </c>
     </row>
     <row r="2" ht="40" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="14" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="23" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="53" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="22" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="6" ht="23" spans="1:7">
+      <c r="A6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="66" spans="1:7">
+      <c r="A7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="23" spans="1:7">
+      <c r="A8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="http://pss-dispatch-fluctuation.cddev.cddpi.com/v1/fluctuationDispatch/submit"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/submit"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/submit"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="19.9916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.025" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.0833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.06666666666667" style="1"/>
+    <col min="10" max="10" width="36.5166666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.06666666666667" style="1"/>
+    <col min="12" max="12" width="21.3833333333333" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.06666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="38" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="59" customHeight="1" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="38" spans="1:12">
+      <c r="A5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="65" customHeight="1" spans="1:12">
+      <c r="A6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" ht="75" customHeight="1" spans="1:12">
+      <c r="A7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" ht="38" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" ht="38" spans="1:12">
+      <c r="A9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" s="23" customFormat="1" ht="67" customHeight="1" spans="1:12">
+      <c r="A10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="65" customHeight="1" spans="1:12">
+      <c r="A11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="38" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="38" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="38" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="38" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="38" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" ht="38" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="38" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G18 G16:G17 G19:G1048576">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/submit"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/page?current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance="/>
+    <hyperlink ref="B17" r:id="rId3" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/" tooltip="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
+    <hyperlink ref="B7" r:id="rId4" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
+    <hyperlink ref="B10" r:id="rId4" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle" tooltip="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
+    <hyperlink ref="B18" r:id="rId5" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch" tooltip="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="14" spans="1:7">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="79" spans="1:7">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="79" spans="1:7">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="27.075" customWidth="1"/>
+    <col min="2" max="4" width="26.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.7166666666667" customWidth="1"/>
+    <col min="10" max="10" width="38.8916666666667" customWidth="1"/>
+    <col min="11" max="11" width="17.9166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:12">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="111" spans="1:12">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="38" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" ht="66" customHeight="1" spans="1:12">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="66" customHeight="1" spans="1:12">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" ht="73" customHeight="1" spans="1:12">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" ht="73" customHeight="1" spans="1:12">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" ht="74" customHeight="1" spans="1:12">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="74" customHeight="1" spans="1:12">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="74" customHeight="1" spans="1:12">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" ht="68" customHeight="1" spans="1:12">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="68" customHeight="1" spans="1:12">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="38" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="172" spans="1:12">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" ht="38" spans="1:12">
+      <c r="A16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10" tooltip="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10"/>
+    <hyperlink ref="B15" r:id="rId2" display="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch"/>
+    <hyperlink ref="B11" r:id="rId3" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
+    <hyperlink ref="B3" r:id="rId4" display="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/submit"/>
+    <hyperlink ref="B16" r:id="rId5" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Fault_Dispatch"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="9" max="13" width="27.3583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
+      <formula1>"n,y"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/interfaces.xlsx
+++ b/data/interfaces.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>name</t>
   </si>
@@ -539,7 +539,7 @@
     <t>创建提交领导审核</t>
   </si>
   <si>
-    <t>http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/submit</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-production/v1/faultDispatch/submit</t>
   </si>
   <si>
     <t>{"title":"需领导审核","faultPosition":"的","faultTime":"2021-11-24 14:29:03","faultType":4,"description":"","factory":11806,"leaderApprove":1,"leader":11806,"alertId":"","alertType":""}</t>
@@ -565,10 +565,13 @@
 }</t>
   </si>
   <si>
-    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/todo-page?current=0&amp;size=10&amp;orderType=Fault_Dispatch&amp;createTime=&amp;startTime=&amp;endTime=</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/todo-page?current=0&amp;size=10&amp;orderType=Fault_Dispatch&amp;createTime=&amp;startTime=&amp;endTime=</t>
   </si>
   <si>
     <t>作业区值班领导同意</t>
+  </si>
+  <si>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle</t>
   </si>
   <si>
     <t>{
@@ -760,13 +763,13 @@
 }</t>
   </si>
   <si>
-    <t>http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-production/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10</t>
   </si>
   <si>
     <t>新建保存草稿</t>
   </si>
   <si>
-    <t>http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-production/v1/faultDispatch</t>
   </si>
   <si>
     <t>{
@@ -783,7 +786,7 @@
 }</t>
   </si>
   <si>
-    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Fault_Dispatch</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/close?orderType=Fault_Dispatch</t>
   </si>
 </sst>
 </file>
@@ -791,9 +794,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -818,18 +821,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Menlo"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8.25"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <charset val="134"/>
     </font>
@@ -842,6 +833,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Menlo"/>
       <charset val="134"/>
@@ -924,13 +927,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -944,15 +940,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -967,11 +964,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -983,79 +1054,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1080,7 +1083,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,43 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,67 +1179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,13 +1209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,13 +1227,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,8 +1274,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,7 +1284,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,41 +1330,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,157 +1353,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,16 +1540,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1555,7 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="41" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1612,9 +1615,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1630,7 +1630,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2006,7 +2006,7 @@
       <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -2023,16 +2023,16 @@
       </c>
     </row>
     <row r="3" ht="14" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
@@ -2052,7 +2052,7 @@
       <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -2075,7 +2075,7 @@
       <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -2095,13 +2095,13 @@
       <c r="A6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -2118,10 +2118,10 @@
       <c r="A7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -2141,13 +2141,13 @@
       <c r="A8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -2245,7 +2245,7 @@
       <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -2263,7 +2263,7 @@
       <c r="H2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="J2" s="31" t="s">
@@ -2272,7 +2272,7 @@
       <c r="K2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2301,7 +2301,7 @@
       <c r="H3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="31" t="s">
@@ -2318,10 +2318,10 @@
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -2359,7 +2359,7 @@
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2377,7 +2377,7 @@
       <c r="H5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="31" t="s">
@@ -2397,7 +2397,7 @@
       <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -2415,7 +2415,7 @@
       <c r="H6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>43</v>
       </c>
       <c r="J6" s="31" t="s">
@@ -2432,10 +2432,10 @@
       <c r="A7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -2473,7 +2473,7 @@
       <c r="B8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2495,7 +2495,7 @@
       <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2513,7 +2513,7 @@
       <c r="H9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>43</v>
       </c>
       <c r="J9" s="31" t="s">
@@ -2533,7 +2533,7 @@
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -2571,7 +2571,7 @@
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -2586,10 +2586,10 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="16" t="s">
         <v>72</v>
       </c>
       <c r="J11" s="31" t="s">
@@ -2609,7 +2609,7 @@
       <c r="B12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2630,7 +2630,7 @@
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2653,10 +2653,10 @@
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2671,7 +2671,7 @@
       <c r="H14" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>43</v>
       </c>
       <c r="J14" s="31" t="s">
@@ -2680,7 +2680,7 @@
       <c r="K14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2688,13 +2688,13 @@
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2706,16 +2706,16 @@
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="9" t="s">
         <v>72</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="33" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2723,13 +2723,13 @@
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2741,13 +2741,13 @@
       <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="33" t="s">
         <v>73</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -2758,10 +2758,10 @@
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2775,10 +2775,10 @@
       <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2861,13 +2861,13 @@
       <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="22" t="s">
@@ -2884,13 +2884,13 @@
       <c r="A3" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E3" s="22" t="s">
@@ -2919,14 +2919,15 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.075" customWidth="1"/>
-    <col min="2" max="4" width="26.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="48.8916666666667" customWidth="1"/>
+    <col min="3" max="4" width="26.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="19.7166666666667" customWidth="1"/>
     <col min="10" max="10" width="38.8916666666667" customWidth="1"/>
     <col min="11" max="11" width="17.9166666666667" customWidth="1"/>
@@ -2977,10 +2978,10 @@
       <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E2" t="s">
@@ -2998,7 +2999,7 @@
       <c r="I2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K2" t="s">
@@ -3012,10 +3013,10 @@
       <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -3036,7 +3037,7 @@
       <c r="I3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K3" t="s">
@@ -3053,7 +3054,7 @@
       <c r="B4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3066,21 +3067,21 @@
       <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="9"/>
       <c r="L4" s="20"/>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:12">
       <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -3097,7 +3098,7 @@
       <c r="I5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K5" t="s">
@@ -3109,16 +3110,16 @@
     </row>
     <row r="6" ht="66" customHeight="1" spans="1:12">
       <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -3147,16 +3148,16 @@
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:12">
       <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -3173,7 +3174,7 @@
       <c r="I7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K7" t="s">
@@ -3185,16 +3186,16 @@
     </row>
     <row r="8" ht="73" customHeight="1" spans="1:12">
       <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -3205,34 +3206,34 @@
       <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K8" t="s">
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="74" customHeight="1" spans="1:12">
       <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -3249,7 +3250,7 @@
       <c r="I9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K9" t="s">
@@ -3261,16 +3262,16 @@
     </row>
     <row r="10" ht="74" customHeight="1" spans="1:12">
       <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -3287,11 +3288,11 @@
       <c r="I10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>46</v>
@@ -3301,14 +3302,14 @@
       <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -3337,16 +3338,16 @@
     </row>
     <row r="12" ht="68" customHeight="1" spans="1:12">
       <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -3363,11 +3364,11 @@
       <c r="I12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>46</v>
@@ -3375,16 +3376,16 @@
     </row>
     <row r="13" customFormat="1" ht="68" customHeight="1" spans="1:12">
       <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -3395,30 +3396,30 @@
       <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K13" t="s">
         <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="38" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3434,16 +3435,16 @@
     </row>
     <row r="15" ht="172" spans="1:12">
       <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -3461,17 +3462,17 @@
         <v>87</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="38" spans="1:12">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="s">
@@ -3496,7 +3497,7 @@
         <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3506,11 +3507,13 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10" tooltip="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10"/>
-    <hyperlink ref="B15" r:id="rId2" display="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch"/>
-    <hyperlink ref="B11" r:id="rId3" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
-    <hyperlink ref="B3" r:id="rId4" display="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/submit"/>
-    <hyperlink ref="B16" r:id="rId5" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Fault_Dispatch"/>
+    <hyperlink ref="B14" r:id="rId1" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-production/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10" tooltip="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/page?createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;source=&amp;current=0&amp;size=10"/>
+    <hyperlink ref="B15" r:id="rId2" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-production/v1/faultDispatch"/>
+    <hyperlink ref="B11" r:id="rId3" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle"/>
+    <hyperlink ref="B3" r:id="rId4" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-production/v1/faultDispatch/submit"/>
+    <hyperlink ref="B16" r:id="rId5" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/close?orderType=Fault_Dispatch"/>
+    <hyperlink ref="B2" r:id="rId4" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-production/v1/faultDispatch/submit" tooltip="http://pss-dispatch-production.cddev.cddpi.com/v1/faultDispatch/submit"/>
+    <hyperlink ref="B4" r:id="rId6" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/todo-page?current=0&amp;size=10&amp;orderType=Fault_Dispatch&amp;createTime=&amp;startTime=&amp;endTime="/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/data/interfaces.xlsx
+++ b/data/interfaces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="12000" activeTab="3"/>
+    <workbookView windowWidth="27180" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bi" sheetId="1" r:id="rId1"/>
@@ -233,6 +233,9 @@
     <t>长途</t>
   </si>
   <si>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs/submit</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -301,7 +304,7 @@
     <t>处理中</t>
   </si>
   <si>
-    <t>7e50a27a-4dd1-11ec-93d3-8e238048f849</t>
+    <t>ea64bdab-50eb-11ec-ae31-36c1b2542318</t>
   </si>
   <si>
     <t>T2</t>
@@ -313,7 +316,7 @@
     <t>申请领导审批通过</t>
   </si>
   <si>
-    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle</t>
   </si>
   <si>
     <t>{"param":{"examine":1,"comment":"","previousStepUsers":"11806","longDistance":"1"},"preTask":"审核值班车申请","comment":"","orderType":"Duty_Bkq_Dispatch","optionUser":"11806","optionHandle":"同意"}</t>
@@ -403,7 +406,7 @@
 }</t>
   </si>
   <si>
-    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/todo-page?current=0&amp;size=10&amp;orderType=Duty_Bkq_Dispatch&amp;createTime=&amp;startTime=&amp;endTime=</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/todo-page?current=0&amp;size=10&amp;orderType=Duty_Bkq_Dispatch&amp;createTime=&amp;startTime=&amp;endTime=</t>
   </si>
   <si>
     <t>值班厂领导审批通过</t>
@@ -464,7 +467,7 @@
     <t>百口泉工单查询</t>
   </si>
   <si>
-    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/page?current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance=</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs/page?current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance=</t>
   </si>
   <si>
     <t>编辑提交审核</t>
@@ -482,7 +485,7 @@
     <t>百口泉值班车调度列表</t>
   </si>
   <si>
-    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/page</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs/page</t>
   </si>
   <si>
     <t>current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance=</t>
@@ -491,7 +494,7 @@
     <t>创建草稿</t>
   </si>
   <si>
-    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs</t>
   </si>
   <si>
     <t>{"dispatchId":None,"title":"草稿","useTime":"2021-11-17","leader":"11806","longDistance":"1","cars":[{"carName":"新JQ9162蓝 田广林 13519906213","carId":"243380571031277568","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":"工作安排1"},{"carName":"新JG9165蓝 冯军 13999508560","carId":"243380571022888960","orgId":"243380559601799168","orgName":"三达公司车组-采气一厂监控","work":"工作安排2"}]}</t>
@@ -506,13 +509,13 @@
     <t>获取工单详情</t>
   </si>
   <si>
-    <t>http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs/</t>
   </si>
   <si>
     <t>关闭</t>
   </si>
   <si>
-    <t>http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch</t>
+    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch</t>
   </si>
   <si>
     <t>close</t>
@@ -569,9 +572,6 @@
   </si>
   <si>
     <t>作业区值班领导同意</t>
-  </si>
-  <si>
-    <t>http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle</t>
   </si>
   <si>
     <t>{
@@ -795,9 +795,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -941,10 +941,72 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -956,9 +1018,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,17 +1032,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,50 +1048,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1046,19 +1055,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,25 +1083,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,7 +1101,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,49 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,13 +1155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,25 +1185,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,13 +1221,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,7 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,10 +1271,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1290,16 +1331,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,146 +1362,105 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1469,28 +1469,28 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,22 +1499,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,10 +2181,10 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18:I18"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
@@ -2243,13 +2243,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -2261,33 +2261,33 @@
         <v>25</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="38" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -2299,33 +2299,33 @@
         <v>25</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="59" customHeight="1" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -2337,33 +2337,33 @@
         <v>25</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" ht="38" spans="1:12">
       <c r="A5" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2375,33 +2375,33 @@
         <v>25</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="65" customHeight="1" spans="1:12">
       <c r="A6" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -2413,33 +2413,33 @@
         <v>25</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:12">
       <c r="A7" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -2451,30 +2451,30 @@
         <v>25</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="38" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>20</v>
@@ -2490,16 +2490,16 @@
     </row>
     <row r="9" ht="38" spans="1:12">
       <c r="A9" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -2511,33 +2511,33 @@
         <v>25</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" s="23" customFormat="1" ht="67" customHeight="1" spans="1:12">
       <c r="A10" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>11</v>
@@ -2549,33 +2549,33 @@
         <v>25</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="65" customHeight="1" spans="1:12">
       <c r="A11" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
@@ -2587,30 +2587,30 @@
         <v>25</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="38" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>20</v>
@@ -2625,16 +2625,16 @@
     </row>
     <row r="13" ht="38" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>11</v>
@@ -2648,16 +2648,16 @@
     </row>
     <row r="14" ht="38" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>11</v>
@@ -2669,33 +2669,33 @@
         <v>25</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="38" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
@@ -2707,30 +2707,30 @@
         <v>25</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="38" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -2742,27 +2742,27 @@
         <v>25</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="38" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -2773,13 +2773,13 @@
     </row>
     <row r="18" ht="38" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -2794,13 +2794,13 @@
         <v>25</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2810,13 +2810,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/submit"/>
-    <hyperlink ref="B12" r:id="rId2" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/page?current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance="/>
-    <hyperlink ref="B17" r:id="rId3" display="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/" tooltip="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
-    <hyperlink ref="B7" r:id="rId4" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
-    <hyperlink ref="B10" r:id="rId4" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle" tooltip="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
-    <hyperlink ref="B18" r:id="rId5" display="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch" tooltip="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs/submit" tooltip="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/submit"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs/page?current=0&amp;size=10&amp;createdBy=&amp;alterTime=&amp;startTime=&amp;endTime=&amp;status=&amp;longDistance="/>
+    <hyperlink ref="B17" r:id="rId3" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-dispatch-car/v1/dutyDispatchBkqs/" tooltip="http://pss-dispatch-car.cddev.cddpi.com/v1/dutyDispatchBkqs/"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle"/>
+    <hyperlink ref="B7" r:id="rId4" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle"/>
+    <hyperlink ref="B10" r:id="rId4" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle" tooltip="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/handle"/>
+    <hyperlink ref="B18" r:id="rId5" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch" tooltip="http://pss-work-order.cddev.cddpi.com/v1/processTransactions/close?orderType=Duty_Bkq_Dispatch"/>
+    <hyperlink ref="B3" r:id="rId4" display="http://xjyt-tool-gateway-test.cddev.cddpi.com/pss-work-order/v1/processTransactions/handle"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2859,16 +2860,16 @@
     </row>
     <row r="2" ht="79" spans="1:7">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>11</v>
@@ -2882,7 +2883,7 @@
     </row>
     <row r="3" ht="79" spans="1:7">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>32</v>
@@ -2891,7 +2892,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>11</v>
@@ -2919,7 +2920,7 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2973,16 +2974,16 @@
     </row>
     <row r="2" ht="34" spans="1:12">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -2994,33 +2995,33 @@
         <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="111" spans="1:12">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3032,30 +3033,30 @@
         <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="38" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
@@ -3072,13 +3073,13 @@
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>108</v>
@@ -3093,19 +3094,19 @@
         <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="66" customHeight="1" spans="1:12">
@@ -3113,10 +3114,10 @@
         <v>109</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>110</v>
@@ -3131,19 +3132,19 @@
         <v>25</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:12">
@@ -3151,10 +3152,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>112</v>
@@ -3169,19 +3170,19 @@
         <v>25</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="73" customHeight="1" spans="1:12">
@@ -3189,10 +3190,10 @@
         <v>113</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>114</v>
@@ -3207,16 +3208,16 @@
         <v>25</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
         <v>115</v>
@@ -3227,10 +3228,10 @@
         <v>116</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>117</v>
@@ -3245,19 +3246,19 @@
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="74" customHeight="1" spans="1:12">
@@ -3265,10 +3266,10 @@
         <v>118</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>119</v>
@@ -3283,30 +3284,30 @@
         <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
         <v>120</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="74" customHeight="1" spans="1:12">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>121</v>
@@ -3321,19 +3322,19 @@
         <v>25</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="68" customHeight="1" spans="1:12">
@@ -3341,10 +3342,10 @@
         <v>122</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>123</v>
@@ -3359,19 +3360,19 @@
         <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
         <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="68" customHeight="1" spans="1:12">
@@ -3379,10 +3380,10 @@
         <v>124</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>125</v>
@@ -3397,16 +3398,16 @@
         <v>25</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
         <v>115</v>
@@ -3420,7 +3421,7 @@
         <v>126</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
@@ -3441,7 +3442,7 @@
         <v>128</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>129</v>
@@ -3456,10 +3457,10 @@
         <v>25</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
         <v>115</v>
@@ -3467,13 +3468,13 @@
     </row>
     <row r="16" ht="38" spans="1:12">
       <c r="A16" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -3488,13 +3489,13 @@
         <v>25</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
         <v>115</v>

--- a/data/interfaces.xlsx
+++ b/data/interfaces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="27180" windowHeight="12000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bi" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
     <t>{"title":"需领导审核","faultPosition":"的","faultTime":"2021-11-24 14:29:03","faultType":4,"description":"","factory":11806,"leaderApprove":1,"leader":11806,"alertId":"","alertType":""}</t>
   </si>
   <si>
-    <t>c2030ed9-37d3-11ec-8efc-aec2fc2fdb69</t>
+    <t>f31dd1ae-51b9-11ec-ae31-36c1b2542318</t>
   </si>
   <si>
     <t>创建提交厂调审核</t>
@@ -2181,7 +2181,7 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
@@ -2920,8 +2920,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>

--- a/data/interfaces.xlsx
+++ b/data/interfaces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="12000" activeTab="3"/>
+    <workbookView windowWidth="17930" windowHeight="6980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bi" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="产量波动分析" sheetId="3" r:id="rId3"/>
     <sheet name="故障" sheetId="4" r:id="rId4"/>
     <sheet name="应急抢修" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -539,6 +540,61 @@
     <t>{"dispatchId":"249570264424255488","code":"CLBD1637310187829","title":"草稿","baseState":"2","fluctuationType":"well","reason":"3","conclusion":"为","plan":"饿","report":1,"assayer":"11806","engineer":None,"notifyParty":None,"source":"new_create","alertType":None,"alertId":None,"status":"to_submit","planStatus":None,"isFile":"否","processDefinitionId":None,"processInstanceId":None,"completeProgress":None,"tenantId":None,"createdBy":"0","creationDate":"2021-11-19 16:23:07","sourceName":None,"statusName":None,"planStatusName":None,"fluctuationTypeName":None,"unit":[{"unitId":"156"},{"unitId":"155"}],"comment":[],"id":"249570264424255488"}</t>
   </si>
   <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>http://pss-system.cddev.cddpi.com/v1/file/uploadFile</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"Content-Type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"multipart/form-data; boundary=----WebKitFormBoundaryVWOZibmXgzNxhWZ3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"file":("测试.csv",open("C:/Users/EDZ/Downloads/测试.csv", "rb"),"application/vnd.ms-excel")}</t>
+  </si>
+  <si>
+    <t>group1</t>
+  </si>
+  <si>
     <t>创建提交领导审核</t>
   </si>
   <si>
@@ -795,9 +851,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -850,6 +906,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8.25"/>
+      <color rgb="FFC80000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF808080"/>
@@ -857,13 +920,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8.25"/>
-      <color rgb="FFC80000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -884,6 +940,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -892,12 +954,6 @@
       <i/>
       <sz val="10"/>
       <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Menlo"/>
       <charset val="134"/>
     </font>
     <font>
@@ -927,6 +983,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -934,7 +997,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,30 +1073,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -988,50 +1088,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1049,14 +1105,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,31 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,97 +1145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1163,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,31 +1265,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,6 +1324,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1290,7 +1390,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,41 +1410,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1359,162 +1424,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1540,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1558,24 +1614,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1591,7 +1647,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1603,16 +1659,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1630,7 +1686,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -1645,54 +1701,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1959,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1967,16 +2023,16 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" style="21" customWidth="1"/>
+    <col min="1" max="1" width="39.4384615384615" style="21" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="22" customWidth="1"/>
-    <col min="4" max="4" width="62.9166666666667" style="22" customWidth="1"/>
-    <col min="5" max="6" width="10.8333333333333" style="22"/>
+    <col min="4" max="4" width="62.9153846153846" style="22" customWidth="1"/>
+    <col min="5" max="6" width="10.8307692307692" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="40" spans="1:7">
+    <row r="2" ht="46.5" spans="1:7">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
@@ -2022,7 +2078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="14" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="34" t="s">
         <v>14</v>
       </c>
@@ -2045,7 +2101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="23" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
@@ -2068,7 +2124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="53" spans="1:7">
+    <row r="5" ht="62" spans="1:7">
       <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
@@ -2091,7 +2147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="23" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
         <v>26</v>
       </c>
@@ -2114,7 +2170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="66" spans="1:7">
+    <row r="7" ht="77.5" spans="1:7">
       <c r="A7" s="21" t="s">
         <v>29</v>
       </c>
@@ -2137,7 +2193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="23" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
         <v>31</v>
       </c>
@@ -2177,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -2187,17 +2243,17 @@
       <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.06923076923077" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="19.9916666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.025" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.0833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.06666666666667" style="1"/>
-    <col min="10" max="10" width="36.5166666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.06666666666667" style="1"/>
-    <col min="12" max="12" width="21.3833333333333" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.06666666666667" style="1"/>
+    <col min="1" max="1" width="19.9923076923077" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.0230769230769" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.0846153846154" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1692307692308" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.06923076923077" style="1"/>
+    <col min="10" max="10" width="36.5153846153846" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.06923076923077" style="1"/>
+    <col min="12" max="12" width="21.3846153846154" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.06923076923077" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2225,13 +2281,13 @@
       <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="26" t="s">
         <v>37</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -2260,23 +2316,23 @@
       <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="26" t="s">
         <v>46</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" ht="38" spans="1:12">
+    <row r="3" ht="26" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -2298,16 +2354,16 @@
       <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="26" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="20" t="s">
@@ -2336,24 +2392,24 @@
       <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="26" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="38" spans="1:12">
-      <c r="A5" s="26" t="s">
+    <row r="5" ht="26" spans="1:12">
+      <c r="A5" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2374,16 +2430,16 @@
       <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="26" t="s">
         <v>59</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -2391,7 +2447,7 @@
       </c>
     </row>
     <row r="6" ht="65" customHeight="1" spans="1:12">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2412,16 +2468,16 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="26" t="s">
         <v>62</v>
       </c>
       <c r="L6" s="20" t="s">
@@ -2429,7 +2485,7 @@
       </c>
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:12">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2450,23 +2506,23 @@
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="26" t="s">
         <v>56</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="38" spans="1:12">
+    <row r="8" ht="26" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -2488,8 +2544,8 @@
       </c>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" ht="38" spans="1:12">
-      <c r="A9" s="27" t="s">
+    <row r="9" ht="26" spans="1:12">
+      <c r="A9" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2510,16 +2566,16 @@
       <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="26" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="20" t="s">
@@ -2527,37 +2583,37 @@
       </c>
     </row>
     <row r="10" s="23" customFormat="1" ht="67" customHeight="1" spans="1:12">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="20" t="s">
@@ -2565,7 +2621,7 @@
       </c>
     </row>
     <row r="11" ht="65" customHeight="1" spans="1:12">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2586,13 +2642,13 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2602,11 +2658,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" ht="38" spans="1:7">
+    <row r="12" ht="26" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -2623,7 +2679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="38" spans="1:7">
+    <row r="13" ht="26" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -2646,7 +2702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="38" spans="1:12">
+    <row r="14" ht="26" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
@@ -2668,23 +2724,23 @@
       <c r="G14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="38" spans="1:11">
+    <row r="15" ht="26" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -2712,14 +2768,14 @@
       <c r="I15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="26" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" ht="38" spans="1:12">
+    <row r="16" ht="26" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -2741,10 +2797,10 @@
       <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="13" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="33" t="s">
@@ -2754,7 +2810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" ht="38" spans="1:5">
+    <row r="17" ht="26" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2771,7 +2827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="38" spans="1:12">
+    <row r="18" ht="26" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -2793,10 +2849,10 @@
       <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="13" t="s">
         <v>94</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -2825,17 +2881,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06923076923077" defaultRowHeight="15.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="33.5384615384615" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="22.4615384615385" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="14" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="79" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2881,7 +2942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" ht="79" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2904,34 +2965,60 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" ht="93" spans="1:7">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3 G4">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://pss-system.cddev.cddpi.com/v1/file/uploadFile"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.06923076923077" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="27.075" customWidth="1"/>
-    <col min="2" max="2" width="48.8916666666667" customWidth="1"/>
-    <col min="3" max="4" width="26.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="19.7166666666667" customWidth="1"/>
-    <col min="10" max="10" width="38.8916666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="27.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="48.8923076923077" customWidth="1"/>
+    <col min="3" max="4" width="26.6692307692308" customWidth="1"/>
+    <col min="9" max="9" width="19.7153846153846" customWidth="1"/>
+    <col min="10" max="10" width="38.8923076923077" customWidth="1"/>
+    <col min="11" max="11" width="17.9153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -2972,18 +3059,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:12">
+    <row r="2" ht="23" spans="1:12">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -3001,7 +3088,7 @@
         <v>44</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
@@ -3010,18 +3097,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="111" spans="1:12">
+    <row r="3" customFormat="1" ht="132" spans="1:12">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3039,7 +3126,7 @@
         <v>44</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
         <v>51</v>
@@ -3048,12 +3135,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="38" spans="1:12">
+    <row r="4" s="1" customFormat="1" ht="26" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>41</v>
@@ -3073,7 +3160,7 @@
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>49</v>
@@ -3082,7 +3169,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -3100,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
         <v>51</v>
@@ -3111,7 +3198,7 @@
     </row>
     <row r="6" ht="66" customHeight="1" spans="1:12">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>49</v>
@@ -3120,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -3131,14 +3218,14 @@
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>103</v>
+      <c r="J6" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -3149,7 +3236,7 @@
     </row>
     <row r="7" ht="73" customHeight="1" spans="1:12">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>49</v>
@@ -3158,7 +3245,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -3176,7 +3263,7 @@
         <v>44</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
         <v>59</v>
@@ -3187,7 +3274,7 @@
     </row>
     <row r="8" ht="73" customHeight="1" spans="1:12">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>49</v>
@@ -3196,7 +3283,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -3214,18 +3301,18 @@
         <v>73</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="74" customHeight="1" spans="1:12">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>49</v>
@@ -3234,7 +3321,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -3252,7 +3339,7 @@
         <v>44</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
         <v>62</v>
@@ -3263,7 +3350,7 @@
     </row>
     <row r="10" ht="74" customHeight="1" spans="1:12">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>49</v>
@@ -3272,7 +3359,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -3290,10 +3377,10 @@
         <v>44</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>47</v>
@@ -3310,7 +3397,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -3321,14 +3408,14 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>103</v>
+      <c r="J11" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="K11" t="s">
         <v>51</v>
@@ -3339,7 +3426,7 @@
     </row>
     <row r="12" ht="68" customHeight="1" spans="1:12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>49</v>
@@ -3348,7 +3435,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -3366,10 +3453,10 @@
         <v>44</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>47</v>
@@ -3377,7 +3464,7 @@
     </row>
     <row r="13" customFormat="1" ht="68" customHeight="1" spans="1:12">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>49</v>
@@ -3386,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -3404,21 +3491,21 @@
         <v>73</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="38" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="26" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>41</v>
@@ -3429,23 +3516,23 @@
       <c r="E14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="172" spans="1:12">
+    <row r="15" ht="201.5" spans="1:12">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -3456,22 +3543,22 @@
       <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="13" t="s">
         <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" ht="38" spans="1:12">
-      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" ht="26" spans="1:12">
+      <c r="A16" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>41</v>
@@ -3488,17 +3575,17 @@
       <c r="G16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -3530,9 +3617,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.06923076923077" defaultRowHeight="15.5"/>
   <cols>
-    <col min="9" max="13" width="27.3583333333333" customWidth="1"/>
+    <col min="9" max="13" width="27.3615384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -3582,4 +3669,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="15.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>